--- a/PA3/data/speedup.xlsx
+++ b/PA3/data/speedup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="2160" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="2440" yWindow="1800" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,1568 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Up</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="280"/>
+      <c:depthPercent val="140"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1E9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3E9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1E9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3E9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.009211356917594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.011391414129547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.053476373940515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.994772881886001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.995722852651569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.035119303225961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.042414005142938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.973669544940589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.971515255604458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.933616593458762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.434348818563038</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.259366628863139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.222854032829137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.187807878206159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.170048435700295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1E9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3E9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.451317280096084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.418028213173266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.504377695301536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.423775472956079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.401770953875725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.487720737082228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.385694566649587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.39088139618016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.312463675626548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.161118689848896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.642475699587721</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.318365330898344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.220957045603682</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.204510718879766</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17687358489636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1E9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3E9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.922593444224973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.970894493511205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.979010606460891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.975882782923457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.982179138977583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.949131603843558</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.986986129821908</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.990128676919644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.989695712275236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98184988861306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.986670184766097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.958381248020978</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99027322778036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.013361145265789</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.002799934061644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1E9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3E9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.624270739910877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.813713044715101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.864000665996304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85419591712203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.830633991605258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.878459925652944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.799392019078202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.820135386223197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.778991876452599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.803173838172658</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.842011626734649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.879539583381161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.857965748952188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.907896693613967</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.843972636204807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1E9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3E9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4E9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.39256805634202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.645025230801793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.790043375623979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.775483960479771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.781750315724254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.820171868835355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.827190793402366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.822749468224733</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.825490264196447</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.837126058318946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.842781928225546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83864694581809</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.820471585873216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.839016921597136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.844335674923874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="-694053488"/>
+        <c:axId val="-644828576"/>
+        <c:axId val="-694056064"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="-694053488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Data Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.762130370890268"/>
+              <c:y val="0.693424483911342"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-644828576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-644828576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0958608777663238"/>
+              <c:y val="0.508766457009775"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-694053488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="-694056064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cores (p)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-644828576"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,15 +1898,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -363,26 +1925,26 @@
       <c r="G1">
         <v>32</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>1</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>4</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>8</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>16</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>24</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100000000</v>
       </c>
@@ -396,7 +1958,7 @@
         <v>2.1414580000000001</v>
       </c>
       <c r="E2">
-        <v>3.1079349999999999</v>
+        <v>3.3686940000000001</v>
       </c>
       <c r="F2">
         <v>4.9785050000000002</v>
@@ -405,30 +1967,33 @@
         <v>7.9169330000000002</v>
       </c>
       <c r="I2">
+        <v>100000000</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>B2/C2</f>
         <v>1.0092113569175936</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>B2/D2</f>
         <v>1.4513172800960841</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>B2/E2</f>
-        <v>1</v>
-      </c>
-      <c r="M2">
+        <v>0.92259344422497258</v>
+      </c>
+      <c r="N2">
         <f>B2/F2</f>
         <v>0.62427073991087678</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <f>B2/G2</f>
         <v>0.3925680563420203</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>200000000</v>
       </c>
@@ -442,7 +2007,7 @@
         <v>4.4014899999999999</v>
       </c>
       <c r="E3">
-        <v>6.2414370000000003</v>
+        <v>6.4285430000000003</v>
       </c>
       <c r="F3">
         <v>7.6703169999999998</v>
@@ -451,30 +2016,33 @@
         <v>9.6762680000000003</v>
       </c>
       <c r="I3">
+        <v>200000000</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J16" si="0">B3/C3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K16" si="0">B3/C3</f>
         <v>1.0113914141295473</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K16" si="1">B3/D3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L16" si="1">B3/D3</f>
         <v>1.4180282131732664</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L16" si="2">B3/E3</f>
-        <v>1</v>
-      </c>
       <c r="M3">
-        <f t="shared" ref="M3:M16" si="3">B3/F3</f>
+        <f t="shared" ref="M3:M16" si="2">B3/E3</f>
+        <v>0.9708944935112046</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N16" si="3">B3/F3</f>
         <v>0.8137130447151012</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N16" si="4">B3/G3</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O16" si="4">B3/G3</f>
         <v>0.64502523080179264</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>300000000</v>
       </c>
@@ -488,7 +2056,7 @@
         <v>6.4021129999999999</v>
       </c>
       <c r="E4">
-        <v>9.6311959999999992</v>
+        <v>9.8376830000000002</v>
       </c>
       <c r="F4">
         <v>11.147209</v>
@@ -497,30 +2065,33 @@
         <v>12.190718</v>
       </c>
       <c r="I4">
+        <v>300000000</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>1.0534763739405153</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>1.5043776953015355</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M4">
+        <v>0.97901060646089111</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="3"/>
         <v>0.86400066599630443</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" si="4"/>
         <v>0.79004337562397875</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>400000000</v>
       </c>
@@ -534,7 +2105,7 @@
         <v>8.7307790000000001</v>
       </c>
       <c r="E5">
-        <v>12.430669</v>
+        <v>12.737871</v>
       </c>
       <c r="F5">
         <v>14.552479999999999</v>
@@ -543,30 +2114,33 @@
         <v>16.029563</v>
       </c>
       <c r="I5">
+        <v>400000000</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>0.99477288188600077</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>1.4237754729560788</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M5">
+        <v>0.97588278292345709</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="3"/>
         <v>0.85419591712203014</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="4"/>
         <v>0.77548396047977108</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>500000000</v>
       </c>
@@ -580,7 +2154,7 @@
         <v>10.883965</v>
       </c>
       <c r="E6">
-        <v>15.256826</v>
+        <v>15.533649</v>
       </c>
       <c r="F6">
         <v>18.367688000000001</v>
@@ -589,30 +2163,33 @@
         <v>19.516238999999999</v>
       </c>
       <c r="I6">
+        <v>500000000</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>0.99572285265156901</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>1.4017709538757246</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M6">
+        <v>0.98217913897758347</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="3"/>
         <v>0.83063399160525808</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="4"/>
         <v>0.78175031572425413</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>600000000</v>
       </c>
@@ -626,7 +2203,7 @@
         <v>12.988076</v>
       </c>
       <c r="E7">
-        <v>19.32263</v>
+        <v>20.358219999999999</v>
       </c>
       <c r="F7">
         <v>21.996029</v>
@@ -635,30 +2212,33 @@
         <v>23.559245000000001</v>
       </c>
       <c r="I7">
+        <v>600000000</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>1.0351193032259614</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>1.4877207370822285</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M7">
+        <v>0.9491316038435581</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="3"/>
         <v>0.87845992565294395</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="4"/>
         <v>0.82017186883535531</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>700000000</v>
       </c>
@@ -672,7 +2252,7 @@
         <v>15.945410000000001</v>
       </c>
       <c r="E8">
-        <v>22.095468</v>
+        <v>22.386807000000001</v>
       </c>
       <c r="F8">
         <v>27.640340999999999</v>
@@ -681,30 +2261,33 @@
         <v>26.711452999999999</v>
       </c>
       <c r="I8">
+        <v>700000000</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>1.0424140051429385</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>1.3856945666495875</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M8">
+        <v>0.98698612982190803</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="3"/>
         <v>0.79939201907820168</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="4"/>
         <v>0.82719079340236568</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>800000000</v>
       </c>
@@ -718,7 +2301,7 @@
         <v>17.892475999999998</v>
       </c>
       <c r="E9">
-        <v>24.886312</v>
+        <v>25.134422000000001</v>
       </c>
       <c r="F9">
         <v>30.344151</v>
@@ -727,30 +2310,33 @@
         <v>30.24774</v>
       </c>
       <c r="I9">
+        <v>800000000</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>0.9736695449405891</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>1.3908813961801598</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M9">
+        <v>0.99012867691964423</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="3"/>
         <v>0.82013538622319671</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="4"/>
         <v>0.82274946822473349</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>900000000</v>
       </c>
@@ -764,7 +2350,7 @@
         <v>21.110137000000002</v>
       </c>
       <c r="E10">
-        <v>27.706288000000001</v>
+        <v>27.994754</v>
       </c>
       <c r="F10">
         <v>35.566851</v>
@@ -773,30 +2359,33 @@
         <v>33.563434000000001</v>
       </c>
       <c r="I10">
+        <v>900000000</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>0.97151525560445851</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>1.3124636756265484</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M10">
+        <v>0.98969571227523556</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="3"/>
         <v>0.77899187645259915</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="4"/>
         <v>0.82549026419644667</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1000000000</v>
       </c>
@@ -810,7 +2399,7 @@
         <v>26.41161</v>
       </c>
       <c r="E11">
-        <v>30.667014000000002</v>
+        <v>31.233913000000001</v>
       </c>
       <c r="F11">
         <v>38.182287000000002</v>
@@ -819,30 +2408,33 @@
         <v>36.633687000000002</v>
       </c>
       <c r="I11">
+        <v>1000000000</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>0.93361659345876247</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="1"/>
         <v>1.1611186898488961</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M11">
+        <v>0.98184988861305977</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="3"/>
         <v>0.80317383817265842</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="4"/>
         <v>0.8371260583189456</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1100000000</v>
       </c>
@@ -856,7 +2448,7 @@
         <v>52.685423</v>
       </c>
       <c r="E12">
-        <v>33.849103999999997</v>
+        <v>34.306401999999999</v>
       </c>
       <c r="F12">
         <v>40.200280999999997</v>
@@ -865,30 +2457,33 @@
         <v>40.163538000000003</v>
       </c>
       <c r="I12">
+        <v>1100000000</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>0.43434881856303803</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="1"/>
         <v>0.64247569958772077</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M12">
+        <v>0.98667018476609691</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>0.84201162673464891</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="4"/>
         <v>0.8427819282255461</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1200000000</v>
       </c>
@@ -902,7 +2497,7 @@
         <v>121.061712</v>
       </c>
       <c r="E13">
-        <v>38.541851999999999</v>
+        <v>40.215573999999997</v>
       </c>
       <c r="F13">
         <v>43.820486000000002</v>
@@ -911,30 +2506,33 @@
         <v>45.957183999999998</v>
       </c>
       <c r="I13">
+        <v>1200000000</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>0.25936662886313883</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="1"/>
         <v>0.31836533089834379</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M13">
+        <v>0.95838124802097824</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="3"/>
         <v>0.87953958338116101</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="4"/>
         <v>0.83864694581809018</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1300000000</v>
       </c>
@@ -948,7 +2546,7 @@
         <v>189.41404600000001</v>
       </c>
       <c r="E14">
-        <v>41.852367999999998</v>
+        <v>42.263455</v>
       </c>
       <c r="F14">
         <v>48.780931000000002</v>
@@ -957,30 +2555,33 @@
         <v>51.010137</v>
       </c>
       <c r="I14">
+        <v>1300000000</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>0.22285403282913699</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="1"/>
         <v>0.2209570456036824</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M14">
+        <v>0.99027322778036009</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="3"/>
         <v>0.8579657489521878</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="4"/>
         <v>0.82047158587321567</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1400000000</v>
       </c>
@@ -994,7 +2595,7 @@
         <v>226.36413999999999</v>
       </c>
       <c r="E15">
-        <v>46.293892999999997</v>
+        <v>45.683509000000001</v>
       </c>
       <c r="F15">
         <v>50.990265000000001</v>
@@ -1003,30 +2604,33 @@
         <v>55.176352000000001</v>
       </c>
       <c r="I15">
+        <v>1400000000</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>0.18780787820615935</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="1"/>
         <v>0.20451071887976602</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M15">
+        <v>1.0133611452657894</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="3"/>
         <v>0.90789669361396719</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="4"/>
         <v>0.83901692159713637</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1500000000</v>
       </c>
@@ -1040,7 +2644,7 @@
         <v>278.13819699999999</v>
       </c>
       <c r="E16">
-        <v>49.195300000000003</v>
+        <v>49.057941</v>
       </c>
       <c r="F16">
         <v>58.29016</v>
@@ -1049,30 +2653,35 @@
         <v>58.265096999999997</v>
       </c>
       <c r="I16">
+        <v>1500000000</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>0.17004843570029463</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="1"/>
         <v>0.17687358489636001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M16">
+        <v>1.0027999340616436</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="3"/>
         <v>0.84397263620480723</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="4"/>
         <v>0.84433567492387429</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>